--- a/biology/Médecine/Benjamin_Jesty/Benjamin_Jesty.xlsx
+++ b/biology/Médecine/Benjamin_Jesty/Benjamin_Jesty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benjamin Jesty (1736-1816) est considéré comme l'un des premiers à avoir expérimenté une vaccination contre la variole, à la fin du XVIIIe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Benjamin Jesty était un agriculteur du Dorset. Né à Yetminster, Dorset, en 1736, il est le plus jeune des quatre fils de Robert Jesty, boucher, et épouse en 1770 Elizabeth Notley (1740–1824). Dans le sud de l'Angleterre, on commence alors à constater que plusieurs éleveurs résistent à la variole, même quand le bétail en est malade, s'ils ont été immunisés au préalable, naturellement, en raison d'une exposition seulement partielle ou temporaire.
 En 1774, Benjamin Jesty  a réussi à induire une immunité artificielle chez sa femme et ses deux fils avec la vaccine ou cow pox, au cours d'une épidémie de variole, en lui transférant une petite quantité prélevée sur une de ses vaches malade. D'abord très malades, tous les trois résistent, mais l'entourage se montre très critique.
